--- a/Datasets/homicide_report_total_and_sex.xlsx
+++ b/Datasets/homicide_report_total_and_sex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroszekely/Documents/GitHub/t2wml/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\isi\T2WML\t2wml\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB0BDE5-8E7E-2743-8990-2AE5805E6F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8941FB56-7D15-4739-BC22-AC29A22AA695}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30140" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table-1a" sheetId="6" r:id="rId1"/>
@@ -1949,7 +1949,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2105,6 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2391,20 +2392,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C341235-EDCA-764F-86D1-16D0516EE85B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="25"/>
+    <col min="3" max="3" width="8.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>482</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
@@ -2476,8 +2477,8 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -2497,8 +2498,8 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -2520,7 +2521,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>58</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>58</v>
       </c>
@@ -2558,17 +2559,17 @@
       </c>
       <c r="F9" s="46"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>472</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>471</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>471</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>500</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>500</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>500</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>496</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>496</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>474</v>
       </c>
@@ -2674,13 +2675,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -2690,7 +2691,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
         <v>482</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="F2" s="84"/>
       <c r="G2" s="85"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="83" t="s">
         <v>33</v>
       </c>
@@ -2714,7 +2715,7 @@
       </c>
       <c r="G3" s="85"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>475</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="27" t="s">
         <v>275</v>
@@ -2790,7 +2791,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="27" t="s">
         <v>275</v>
@@ -2840,7 +2841,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
         <v>275</v>
@@ -2886,7 +2887,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>483</v>
       </c>
@@ -2910,9 +2911,9 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="83" t="s">
         <v>482</v>
       </c>
@@ -2933,7 +2934,7 @@
       <c r="I3" s="84"/>
       <c r="J3" s="85"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="I4" s="84"/>
       <c r="J4" s="85"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -3093,13 +3094,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="89" t="s">
         <v>482</v>
       </c>
@@ -3117,7 +3118,7 @@
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
@@ -3131,7 +3132,7 @@
       </c>
       <c r="G4" s="89"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>493</v>
       </c>
@@ -3250,9 +3251,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>475</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>33</v>
       </c>
@@ -3282,7 +3283,7 @@
       <c r="C4" s="84"/>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2001</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>47</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2000</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2001</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>58</v>
       </c>
@@ -3384,7 +3385,7 @@
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2000</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2001</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2002</v>
       </c>
@@ -3442,12 +3443,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>482</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="83" t="s">
         <v>247</v>
       </c>
@@ -3477,7 +3478,7 @@
       <c r="C4" s="84"/>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
         <v>33</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="91"/>
       <c r="B6" s="27" t="s">
         <v>275</v>
@@ -3503,7 +3504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="92"/>
       <c r="B7" s="27" t="s">
         <v>275</v>
@@ -3515,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>47</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="91"/>
       <c r="B9" s="27" t="s">
         <v>251</v>
@@ -3541,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="92"/>
       <c r="B10" s="27" t="s">
         <v>251</v>
@@ -3551,7 +3552,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="90" t="s">
         <v>58</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
       <c r="B12" s="27" t="s">
         <v>251</v>
@@ -3577,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="92"/>
       <c r="B13" s="27" t="s">
         <v>251</v>
@@ -3589,7 +3590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="83" t="s">
         <v>248</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="90" t="s">
         <v>33</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="91"/>
       <c r="B16" s="27" t="s">
         <v>275</v>
@@ -3623,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="92"/>
       <c r="B17" s="27" t="s">
         <v>275</v>
@@ -3635,7 +3636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="90" t="s">
         <v>47</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="91"/>
       <c r="B19" s="27" t="s">
         <v>251</v>
@@ -3659,7 +3660,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="92"/>
       <c r="B20" s="27" t="s">
         <v>251</v>
@@ -3671,7 +3672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="90" t="s">
         <v>58</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="91"/>
       <c r="B22" s="27" t="s">
         <v>251</v>
@@ -3697,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="92"/>
       <c r="B23" s="27" t="s">
         <v>251</v>
@@ -3730,9 +3731,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>482</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="83">
         <v>2000</v>
       </c>
@@ -3762,7 +3763,7 @@
       <c r="C4" s="84"/>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>47</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>58</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>2001</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>2002</v>
       </c>
@@ -3877,7 +3878,7 @@
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>33</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>47</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>58</v>
       </c>
@@ -3933,9 +3934,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>482</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40">
@@ -3967,7 +3968,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>33</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>47</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>58</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40">
@@ -4019,7 +4020,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>47</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>58</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40">
@@ -4071,7 +4072,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>58</v>
       </c>
@@ -4122,16 +4123,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="60"/>
+    <col min="5" max="16384" width="10.77734375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>482</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="77">
         <v>2000</v>
       </c>
@@ -4161,7 +4162,7 @@
       <c r="C4" s="78"/>
       <c r="D4" s="79"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="62" t="s">
         <v>275</v>
@@ -4187,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>47</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="62" t="s">
         <v>251</v>
@@ -4213,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>58</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="62" t="s">
         <v>251</v>
@@ -4239,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="77">
         <v>2001</v>
       </c>
@@ -4247,7 +4248,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="79"/>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>33</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="62" t="s">
         <v>275</v>
@@ -4273,7 +4274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>47</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="62" t="s">
         <v>251</v>
@@ -4299,7 +4300,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>58</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="62" t="s">
         <v>251</v>
@@ -4325,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="77">
         <v>2002</v>
       </c>
@@ -4333,7 +4334,7 @@
       <c r="C18" s="78"/>
       <c r="D18" s="79"/>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>33</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="62" t="s">
         <v>275</v>
@@ -4359,7 +4360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>47</v>
       </c>
@@ -4371,7 +4372,7 @@
       </c>
       <c r="D21" s="64"/>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="62" t="s">
         <v>251</v>
@@ -4383,7 +4384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>58</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="62" t="s">
         <v>251</v>
@@ -4425,9 +4426,9 @@
       <selection activeCell="E19" sqref="E19:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>475</v>
       </c>
@@ -4452,14 +4453,14 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="34"/>
       <c r="C6" s="27" t="s">
@@ -4489,7 +4490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="34" t="s">
         <v>47</v>
@@ -4504,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="34"/>
       <c r="C8" s="27" t="s">
@@ -4517,7 +4518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="34" t="s">
         <v>58</v>
@@ -4532,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="34"/>
       <c r="C10" s="27" t="s">
@@ -4545,14 +4546,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2001</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="34"/>
       <c r="C13" s="27" t="s">
@@ -4582,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="34" t="s">
         <v>47</v>
@@ -4597,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="34"/>
       <c r="C15" s="27" t="s">
@@ -4610,7 +4611,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="34" t="s">
         <v>58</v>
@@ -4625,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="34"/>
       <c r="C17" s="27" t="s">
@@ -4638,14 +4639,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="34"/>
       <c r="C20" s="27" t="s">
@@ -4675,7 +4676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="34" t="s">
         <v>47</v>
@@ -4688,7 +4689,7 @@
       </c>
       <c r="E21" s="51"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="34"/>
       <c r="C22" s="27" t="s">
@@ -4701,7 +4702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="34" t="s">
         <v>58</v>
@@ -4716,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="34"/>
       <c r="C24" s="27" t="s">
@@ -4740,9 +4741,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>482</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40">
@@ -4766,7 +4767,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>47</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>58</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>507</v>
@@ -4822,7 +4823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40">
@@ -4832,7 +4833,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
         <v>507</v>
@@ -4888,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40">
@@ -4898,7 +4899,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>58</v>
       </c>
@@ -4936,7 +4937,7 @@
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>507</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>508</v>
       </c>
@@ -4971,19 +4972,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306E606D-CC25-7440-B1DE-7CB61853CD87}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -4995,7 +4996,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5003,7 +5004,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>33</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>47</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>47</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>47</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>58</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>58</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>58</v>
       </c>
@@ -5201,12 +5202,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="74"/>
     </row>
   </sheetData>
@@ -5222,17 +5223,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="1.83203125" customWidth="1"/>
+    <col min="5" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -5254,7 +5255,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:39" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -5272,7 +5273,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
@@ -5294,7 +5295,7 @@
       <c r="O3" s="93"/>
       <c r="P3" s="93"/>
     </row>
-    <row r="4" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -5312,7 +5313,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="E5" s="94" t="s">
         <v>422</v>
       </c>
@@ -5352,7 +5353,7 @@
       <c r="AL5" s="95"/>
       <c r="AM5" s="96"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>224</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>6.0205219968920449</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>224</v>
       </c>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>224</v>
       </c>
@@ -5684,7 +5685,7 @@
       </c>
       <c r="AM9" s="5"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>224</v>
       </c>
@@ -5749,7 +5750,7 @@
       </c>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>224</v>
       </c>
@@ -5814,7 +5815,7 @@
       </c>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>224</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>4.8734358400374767</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>224</v>
       </c>
@@ -5980,7 +5981,7 @@
       </c>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>224</v>
       </c>
@@ -6081,7 +6082,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>224</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>1.8219449626865669</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>224</v>
       </c>
@@ -6251,7 +6252,7 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>224</v>
       </c>
@@ -6344,7 +6345,7 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>224</v>
       </c>
@@ -6417,7 +6418,7 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
@@ -6498,7 +6499,7 @@
       </c>
       <c r="AM19" s="5"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>224</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>12.736879422085325</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>224</v>
       </c>
@@ -6660,7 +6661,7 @@
       </c>
       <c r="AM21" s="5"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>224</v>
       </c>
@@ -6713,7 +6714,7 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>224</v>
       </c>
@@ -6810,7 +6811,7 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>224</v>
       </c>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="AM24" s="5"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>224</v>
       </c>
@@ -6976,7 +6977,7 @@
       </c>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>224</v>
       </c>
@@ -7057,7 +7058,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>224</v>
       </c>
@@ -7114,7 +7115,7 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>224</v>
       </c>
@@ -7199,7 +7200,7 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>224</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>19.75737596079167</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>224</v>
       </c>
@@ -7317,7 +7318,7 @@
       </c>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>224</v>
       </c>
@@ -7382,7 +7383,7 @@
       </c>
       <c r="AM31" s="5"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>224</v>
       </c>
@@ -7447,7 +7448,7 @@
       </c>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>224</v>
       </c>
@@ -7512,7 +7513,7 @@
       </c>
       <c r="AM33" s="5"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>224</v>
       </c>
@@ -7577,7 +7578,7 @@
       </c>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>224</v>
       </c>
@@ -7650,7 +7651,7 @@
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>224</v>
       </c>
@@ -7751,7 +7752,7 @@
       </c>
       <c r="AM36" s="5"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>224</v>
       </c>
@@ -7840,7 +7841,7 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>224</v>
       </c>
@@ -7905,7 +7906,7 @@
       </c>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>224</v>
       </c>
@@ -8018,7 +8019,7 @@
       </c>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>224</v>
       </c>
@@ -8075,7 +8076,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>224</v>
       </c>
@@ -8156,7 +8157,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>224</v>
       </c>
@@ -8245,7 +8246,7 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>224</v>
       </c>
@@ -8326,7 +8327,7 @@
       </c>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>224</v>
       </c>
@@ -8411,7 +8412,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>224</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>33.970957025492424</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>224</v>
       </c>
@@ -8617,7 +8618,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>224</v>
       </c>
@@ -8682,7 +8683,7 @@
       </c>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>224</v>
       </c>
@@ -8787,7 +8788,7 @@
       </c>
       <c r="AM48" s="5"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>224</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>11.485829080488983</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>224</v>
       </c>
@@ -8957,7 +8958,7 @@
       </c>
       <c r="AM50" s="5"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>224</v>
       </c>
@@ -9022,7 +9023,7 @@
       </c>
       <c r="AM51" s="5"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>224</v>
       </c>
@@ -9115,7 +9116,7 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>224</v>
       </c>
@@ -9180,7 +9181,7 @@
       </c>
       <c r="AM53" s="5"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>224</v>
       </c>
@@ -9245,7 +9246,7 @@
       </c>
       <c r="AM54" s="5"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>224</v>
       </c>
@@ -9318,7 +9319,7 @@
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>224</v>
       </c>
@@ -9383,7 +9384,7 @@
       </c>
       <c r="AM56" s="5"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>224</v>
       </c>
@@ -9448,7 +9449,7 @@
       </c>
       <c r="AM57" s="5"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>224</v>
       </c>
@@ -9505,7 +9506,7 @@
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>224</v>
       </c>
@@ -9570,7 +9571,7 @@
       </c>
       <c r="AM59" s="5"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>224</v>
       </c>
@@ -9659,7 +9660,7 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>224</v>
       </c>
@@ -9724,7 +9725,7 @@
       </c>
       <c r="AM61" s="5"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>224</v>
       </c>
@@ -9813,7 +9814,7 @@
       </c>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>224</v>
       </c>
@@ -9878,7 +9879,7 @@
       </c>
       <c r="AM63" s="5"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>229</v>
       </c>
@@ -9987,7 +9988,7 @@
       <c r="AL64" s="5"/>
       <c r="AM64" s="5"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>229</v>
       </c>
@@ -10084,7 +10085,7 @@
       <c r="AL65" s="5"/>
       <c r="AM65" s="5"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>229</v>
       </c>
@@ -10189,7 +10190,7 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>229</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>28.400557367334855</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>229</v>
       </c>
@@ -10419,7 +10420,7 @@
       </c>
       <c r="AM68" s="5"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>229</v>
       </c>
@@ -10488,7 +10489,7 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>229</v>
       </c>
@@ -10589,7 +10590,7 @@
       <c r="AL70" s="5"/>
       <c r="AM70" s="5"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>229</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>4.9876864311298608</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>229</v>
       </c>
@@ -10783,7 +10784,7 @@
       <c r="AL72" s="5"/>
       <c r="AM72" s="5"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>229</v>
       </c>
@@ -10880,7 +10881,7 @@
       <c r="AL73" s="5"/>
       <c r="AM73" s="5"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>229</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>15.181704903205922</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>229</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>10.249319352019393</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>229</v>
       </c>
@@ -11183,7 +11184,7 @@
       <c r="AL76" s="5"/>
       <c r="AM76" s="5"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>229</v>
       </c>
@@ -11256,7 +11257,7 @@
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>229</v>
       </c>
@@ -11373,7 +11374,7 @@
         <v>47.011058431412501</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>229</v>
       </c>
@@ -11446,7 +11447,7 @@
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>229</v>
       </c>
@@ -11531,7 +11532,7 @@
       <c r="AL80" s="5"/>
       <c r="AM80" s="5"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>229</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>18.505871376072065</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>229</v>
       </c>
@@ -11749,7 +11750,7 @@
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>229</v>
       </c>
@@ -11858,7 +11859,7 @@
       <c r="AL83" s="5"/>
       <c r="AM83" s="5"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>229</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>36.4561687483139</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>229</v>
       </c>
@@ -12076,7 +12077,7 @@
       </c>
       <c r="AM85" s="5"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>229</v>
       </c>
@@ -12165,7 +12166,7 @@
       <c r="AL86" s="5"/>
       <c r="AM86" s="5"/>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>229</v>
       </c>
@@ -12266,7 +12267,7 @@
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>229</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>37.599167805085912</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>229</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>11.904981604537769</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>229</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>82.842257499895354</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>229</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>27.255019075076326</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>229</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>56.515703091121438</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>229</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>19.263960096300945</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>229</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>7.3671246372748209</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>229</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>9.6695905855675957</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>229</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>12.960124935604378</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>229</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>1.684104544800048</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>229</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>5.3137221560959018</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>229</v>
       </c>
@@ -13618,7 +13619,7 @@
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>229</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>5.3533250951132416</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>229</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>5.9425644507500062</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>229</v>
       </c>
@@ -13893,7 +13894,7 @@
         <v>6.300191217232209</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>229</v>
       </c>
@@ -14010,7 +14011,7 @@
         <v>29.527956498051683</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>229</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>3.4627828035167658</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>229</v>
       </c>
@@ -14228,7 +14229,7 @@
         <v>25.504326148187612</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>229</v>
       </c>
@@ -14345,7 +14346,7 @@
         <v>5.8537666821668379</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>229</v>
       </c>
@@ -14418,7 +14419,7 @@
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>18.370776079904079</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>229</v>
       </c>
@@ -14648,7 +14649,7 @@
       </c>
       <c r="AM109" s="5"/>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>229</v>
       </c>
@@ -14721,7 +14722,7 @@
         <v>7.665964527280769</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>229</v>
       </c>
@@ -14806,7 +14807,7 @@
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>229</v>
       </c>
@@ -14923,7 +14924,7 @@
         <v>7.6942704571488365</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>229</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>56.333319912791787</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -15133,7 +15134,7 @@
       </c>
       <c r="AM114" s="5"/>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>220</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>4.4853846010665341</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>220</v>
       </c>
@@ -15347,7 +15348,7 @@
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>220</v>
       </c>
@@ -15424,7 +15425,7 @@
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>220</v>
       </c>
@@ -15509,7 +15510,7 @@
       <c r="AL118" s="5"/>
       <c r="AM118" s="5"/>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>220</v>
       </c>
@@ -15626,7 +15627,7 @@
         <v>0.61560071186748699</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>220</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>0.38324208293714546</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>220</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>0.16363034203977658</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>220</v>
       </c>
@@ -15945,7 +15946,7 @@
       </c>
       <c r="AM122" s="5"/>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>220</v>
       </c>
@@ -16010,7 +16011,7 @@
       </c>
       <c r="AM123" s="5"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>220</v>
       </c>
@@ -16127,7 +16128,7 @@
         <v>0.28352331066003161</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>220</v>
       </c>
@@ -16232,7 +16233,7 @@
         <v>5.6559215183007101</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>220</v>
       </c>
@@ -16305,7 +16306,7 @@
         <v>0.70111418427139105</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>220</v>
       </c>
@@ -16402,7 +16403,7 @@
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>220</v>
       </c>
@@ -16499,7 +16500,7 @@
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>220</v>
       </c>
@@ -16596,7 +16597,7 @@
         <v>0.49506792867666399</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>220</v>
       </c>
@@ -16661,7 +16662,7 @@
       </c>
       <c r="AM130" s="5"/>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>220</v>
       </c>
@@ -16766,7 +16767,7 @@
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>220</v>
       </c>
@@ -16883,7 +16884,7 @@
         <v>2.2653098527122006</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>220</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>11.019828237804118</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>220</v>
       </c>
@@ -17117,7 +17118,7 @@
         <v>0.32055793607419392</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>220</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>3.2394372444387032</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>220</v>
       </c>
@@ -17315,7 +17316,7 @@
       </c>
       <c r="AM136" s="5"/>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>220</v>
       </c>
@@ -17408,7 +17409,7 @@
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>220</v>
       </c>
@@ -17473,7 +17474,7 @@
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>220</v>
       </c>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="AM139" s="5"/>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>220</v>
       </c>
@@ -17699,7 +17700,7 @@
         <v>1.1292913069664727</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>220</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>3.2236994089426676</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>220</v>
       </c>
@@ -17885,7 +17886,7 @@
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>220</v>
       </c>
@@ -17974,7 +17975,7 @@
       <c r="AL143" s="5"/>
       <c r="AM143" s="5"/>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>220</v>
       </c>
@@ -18087,7 +18088,7 @@
         <v>2.1637791867412113</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>220</v>
       </c>
@@ -18204,7 +18205,7 @@
         <v>4.4083952655321568</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>220</v>
       </c>
@@ -18305,7 +18306,7 @@
         <v>2.5495429102503171</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>220</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>2.9781257689212657</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>220</v>
       </c>
@@ -18527,7 +18528,7 @@
         <v>2.1412517481827824</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>220</v>
       </c>
@@ -18632,7 +18633,7 @@
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>220</v>
       </c>
@@ -18749,7 +18750,7 @@
         <v>1.1108676696833275</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>220</v>
       </c>
@@ -18850,7 +18851,7 @@
         <v>0.98961703952053404</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>220</v>
       </c>
@@ -18923,7 +18924,7 @@
       <c r="AL152" s="5"/>
       <c r="AM152" s="5"/>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>220</v>
       </c>
@@ -19000,7 +19001,7 @@
       <c r="AL153" s="5"/>
       <c r="AM153" s="5"/>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>220</v>
       </c>
@@ -19073,7 +19074,7 @@
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>220</v>
       </c>
@@ -19182,7 +19183,7 @@
       </c>
       <c r="AM155" s="5"/>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>220</v>
       </c>
@@ -19279,7 +19280,7 @@
         <v>1.5476276980700889</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>220</v>
       </c>
@@ -19376,7 +19377,7 @@
       <c r="AL157" s="5"/>
       <c r="AM157" s="5"/>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>220</v>
       </c>
@@ -19461,7 +19462,7 @@
         <v>3.9931018231449427</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>220</v>
       </c>
@@ -19562,7 +19563,7 @@
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>220</v>
       </c>
@@ -19663,7 +19664,7 @@
       <c r="AL160" s="5"/>
       <c r="AM160" s="5"/>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
         <v>220</v>
       </c>
@@ -19748,7 +19749,7 @@
       </c>
       <c r="AM161" s="5"/>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>220</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>0.68824077648909454</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>220</v>
       </c>
@@ -19938,7 +19939,7 @@
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>220</v>
       </c>
@@ -20027,7 +20028,7 @@
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>220</v>
       </c>
@@ -20120,7 +20121,7 @@
         <v>0.89381110545006814</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>220</v>
       </c>
@@ -20217,7 +20218,7 @@
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>222</v>
       </c>
@@ -20326,7 +20327,7 @@
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>222</v>
       </c>
@@ -20443,7 +20444,7 @@
         <v>1.1360420127971627</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
         <v>222</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>0.61264710222444818</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
         <v>222</v>
       </c>
@@ -20677,7 +20678,7 @@
         <v>2.0714993378893332</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>222</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>0.67014617029316781</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
         <v>222</v>
       </c>
@@ -20903,7 +20904,7 @@
       <c r="AL172" s="5"/>
       <c r="AM172" s="5"/>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>222</v>
       </c>
@@ -21020,7 +21021,7 @@
         <v>1.2488012519156713</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>222</v>
       </c>
@@ -21125,7 +21126,7 @@
         <v>10.816182395136124</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>222</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1.0474598547228311</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>222</v>
       </c>
@@ -21343,7 +21344,7 @@
       <c r="AL176" s="5"/>
       <c r="AM176" s="5"/>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>222</v>
       </c>
@@ -21408,7 +21409,7 @@
       <c r="AL177" s="5"/>
       <c r="AM177" s="5"/>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>222</v>
       </c>
@@ -21525,7 +21526,7 @@
         <v>0.98068138232784841</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>222</v>
       </c>
@@ -21638,7 +21639,7 @@
       </c>
       <c r="AM179" s="5"/>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>222</v>
       </c>
@@ -21755,7 +21756,7 @@
         <v>1.4177693761814747</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>222</v>
       </c>
@@ -21872,7 +21873,7 @@
         <v>0.300447727203078</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>222</v>
       </c>
@@ -21989,7 +21990,7 @@
         <v>0.80207959821046737</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
         <v>222</v>
       </c>
@@ -22062,7 +22063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
         <v>222</v>
       </c>
@@ -22175,7 +22176,7 @@
       </c>
       <c r="AM184" s="5"/>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
         <v>222</v>
       </c>
@@ -22292,7 +22293,7 @@
         <v>5.2468664376197998</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
         <v>222</v>
       </c>
@@ -22409,7 +22410,7 @@
         <v>0.51430522849552696</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
         <v>222</v>
       </c>
@@ -22526,7 +22527,7 @@
         <v>1.0777628684988174</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
         <v>222</v>
       </c>
@@ -22643,7 +22644,7 @@
         <v>1.2176200579893155</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
         <v>222</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>0.96639595209920837</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
         <v>222</v>
       </c>
@@ -22877,7 +22878,7 @@
         <v>1.1841257574932362</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
         <v>222</v>
       </c>
@@ -22994,7 +22995,7 @@
         <v>1.2024106683055042</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>222</v>
       </c>
@@ -23111,7 +23112,7 @@
         <v>2.6989264217312363</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>222</v>
       </c>
@@ -23200,7 +23201,7 @@
       </c>
       <c r="AM193" s="5"/>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>222</v>
       </c>
@@ -23313,7 +23314,7 @@
         <v>1.2753632191936157</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>222</v>
       </c>
@@ -23430,7 +23431,7 @@
         <v>1.0446344771732645</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>222</v>
       </c>
@@ -23487,7 +23488,7 @@
       <c r="AL196" s="5"/>
       <c r="AM196" s="5"/>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
         <v>222</v>
       </c>
@@ -23600,7 +23601,7 @@
         <v>0.75035133861517556</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>222</v>
       </c>
@@ -23677,7 +23678,7 @@
       </c>
       <c r="AM198" s="5"/>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
         <v>222</v>
       </c>
@@ -23794,7 +23795,7 @@
         <v>0.67306316281830014</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>222</v>
       </c>
@@ -23879,7 +23880,7 @@
         <v>1.5967404470873252</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>222</v>
       </c>
@@ -23992,7 +23993,7 @@
       </c>
       <c r="AM201" s="5"/>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>222</v>
       </c>
@@ -24101,7 +24102,7 @@
         <v>4.4556174355948457</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
         <v>222</v>
       </c>
@@ -24218,7 +24219,7 @@
         <v>0.63593284179193388</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
         <v>222</v>
       </c>
@@ -24315,7 +24316,7 @@
       <c r="AL204" s="5"/>
       <c r="AM204" s="5"/>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
         <v>222</v>
       </c>
@@ -24432,7 +24433,7 @@
         <v>1.3942721396132982</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
         <v>222</v>
       </c>
@@ -24549,7 +24550,7 @@
         <v>0.48163984109353059</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
         <v>222</v>
       </c>
@@ -24666,7 +24667,7 @@
         <v>0.63348451778921488</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
         <v>222</v>
       </c>
@@ -24775,7 +24776,7 @@
       <c r="AL208" s="5"/>
       <c r="AM208" s="5"/>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
         <v>222</v>
       </c>
@@ -24892,7 +24893,7 @@
         <v>0.65521964985797587</v>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
         <v>222</v>
       </c>
@@ -25005,7 +25006,7 @@
       </c>
       <c r="AM210" s="5"/>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
         <v>222</v>
       </c>
@@ -25122,7 +25123,7 @@
         <v>1.3521868461983428</v>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
         <v>222</v>
       </c>
@@ -25239,7 +25240,7 @@
         <v>1.1761928512473934</v>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
         <v>222</v>
       </c>
@@ -25356,7 +25357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
         <v>222</v>
       </c>
@@ -25465,7 +25466,7 @@
       <c r="AL214" s="5"/>
       <c r="AM214" s="5"/>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
         <v>222</v>
       </c>
@@ -25562,7 +25563,7 @@
       </c>
       <c r="AM215" s="5"/>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
         <v>222</v>
       </c>
@@ -25679,7 +25680,7 @@
         <v>0.55336290410503453</v>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
         <v>222</v>
       </c>
@@ -25796,7 +25797,7 @@
         <v>0.53635744213948755</v>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
         <v>226</v>
       </c>
@@ -25913,7 +25914,7 @@
         <v>0.94115607781637645</v>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>226</v>
       </c>
@@ -26022,7 +26023,7 @@
       <c r="AL219" s="5"/>
       <c r="AM219" s="5"/>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
         <v>226</v>
       </c>
@@ -26119,7 +26120,7 @@
       <c r="AL220" s="5"/>
       <c r="AM220" s="5"/>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
         <v>226</v>
       </c>
@@ -26184,7 +26185,7 @@
       <c r="AL221" s="5"/>
       <c r="AM221" s="5"/>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
         <v>226</v>
       </c>
@@ -26245,7 +26246,7 @@
       <c r="AL222" s="5"/>
       <c r="AM222" s="5"/>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
         <v>226</v>
       </c>
@@ -26314,7 +26315,7 @@
       <c r="AL223" s="5"/>
       <c r="AM223" s="5"/>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
         <v>226</v>
       </c>
@@ -26379,7 +26380,7 @@
       </c>
       <c r="AM224" s="5"/>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
         <v>226</v>
       </c>
@@ -26476,7 +26477,7 @@
       <c r="AL225" s="5"/>
       <c r="AM225" s="5"/>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
         <v>226</v>
       </c>
@@ -26553,7 +26554,7 @@
       <c r="AL226" s="5"/>
       <c r="AM226" s="5"/>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
         <v>226</v>
       </c>
@@ -26618,7 +26619,7 @@
       </c>
       <c r="AM227" s="5"/>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
         <v>226</v>
       </c>
@@ -26671,7 +26672,7 @@
       <c r="AL228" s="5"/>
       <c r="AM228" s="5"/>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>226</v>
       </c>
@@ -26724,7 +26725,7 @@
       <c r="AL229" s="5"/>
       <c r="AM229" s="5"/>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>226</v>
       </c>
@@ -26837,7 +26838,7 @@
         <v>5.3971006775160388</v>
       </c>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
         <v>226</v>
       </c>
@@ -26890,7 +26891,7 @@
       <c r="AL231" s="5"/>
       <c r="AM231" s="5"/>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
         <v>226</v>
       </c>
@@ -26955,7 +26956,7 @@
       <c r="AL232" s="5"/>
       <c r="AM232" s="5"/>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>226</v>
       </c>
@@ -27008,7 +27009,7 @@
       <c r="AL233" s="5"/>
       <c r="AM233" s="5"/>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>226</v>
       </c>
@@ -27069,7 +27070,7 @@
       <c r="AL234" s="5"/>
       <c r="AM234" s="5"/>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>226</v>
       </c>
@@ -27170,7 +27171,7 @@
       <c r="AL235" s="5"/>
       <c r="AM235" s="5"/>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
         <v>226</v>
       </c>
@@ -27263,32 +27264,32 @@
       <c r="AL236" s="5"/>
       <c r="AM236" s="5"/>
     </row>
-    <row r="238" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="23" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="239" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="24" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="240" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="24" t="s">
         <v>431</v>
       </c>
@@ -27311,18 +27312,18 @@
       <selection activeCell="S449" sqref="S449"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -27338,7 +27339,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:40" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -27356,7 +27357,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
@@ -27378,7 +27379,7 @@
       <c r="O3" s="93"/>
       <c r="P3" s="93"/>
     </row>
-    <row r="4" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -27396,7 +27397,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F5" s="94" t="s">
         <v>424</v>
       </c>
@@ -27436,7 +27437,7 @@
       <c r="AM5" s="95"/>
       <c r="AN5" s="96"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -27554,7 +27555,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>224</v>
       </c>
@@ -27622,7 +27623,7 @@
         <v>2.2944048311479288</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>224</v>
       </c>
@@ -27690,7 +27691,7 @@
         <v>9.8719962176716276</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
@@ -27746,7 +27747,7 @@
       </c>
       <c r="AN9" s="5"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>224</v>
       </c>
@@ -27802,7 +27803,7 @@
       </c>
       <c r="AN10" s="5"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
@@ -27858,7 +27859,7 @@
       </c>
       <c r="AN11" s="5"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>224</v>
       </c>
@@ -27914,7 +27915,7 @@
       </c>
       <c r="AN12" s="5"/>
     </row>
-    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -27970,7 +27971,7 @@
       </c>
       <c r="AN13" s="5"/>
     </row>
-    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -28026,7 +28027,7 @@
       </c>
       <c r="AN14" s="5"/>
     </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>224</v>
       </c>
@@ -28082,7 +28083,7 @@
       </c>
       <c r="AN15" s="5"/>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
@@ -28138,7 +28139,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -28202,7 +28203,7 @@
         <v>2.6191386889918165</v>
       </c>
     </row>
-    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -28266,7 +28267,7 @@
         <v>7.1548305923752125</v>
       </c>
     </row>
-    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>224</v>
       </c>
@@ -28322,7 +28323,7 @@
       </c>
       <c r="AN19" s="5"/>
     </row>
-    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -28378,7 +28379,7 @@
       </c>
       <c r="AN20" s="5"/>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
@@ -28434,7 +28435,7 @@
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
@@ -28490,7 +28491,7 @@
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -28602,7 +28603,7 @@
         <v>1.5695102900087678</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>224</v>
       </c>
@@ -28714,7 +28715,7 @@
         <v>2.079179001046529</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>224</v>
       </c>
@@ -28770,7 +28771,7 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>224</v>
       </c>
@@ -28826,7 +28827,7 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>224</v>
       </c>
@@ -28902,7 +28903,7 @@
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>224</v>
       </c>
@@ -28978,7 +28979,7 @@
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>224</v>
       </c>
@@ -29034,7 +29035,7 @@
       </c>
       <c r="AN29" s="5"/>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
@@ -29090,7 +29091,7 @@
       </c>
       <c r="AN30" s="5"/>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>224</v>
       </c>
@@ -29182,7 +29183,7 @@
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>224</v>
       </c>
@@ -29274,7 +29275,7 @@
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>224</v>
       </c>
@@ -29330,7 +29331,7 @@
       </c>
       <c r="AN33" s="5"/>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>224</v>
       </c>
@@ -29386,7 +29387,7 @@
       </c>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>224</v>
       </c>
@@ -29442,7 +29443,7 @@
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
     </row>
-    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>224</v>
       </c>
@@ -29498,7 +29499,7 @@
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
     </row>
-    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>224</v>
       </c>
@@ -29574,7 +29575,7 @@
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
     </row>
-    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>224</v>
       </c>
@@ -29650,7 +29651,7 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>224</v>
       </c>
@@ -29726,7 +29727,7 @@
       </c>
       <c r="AN39" s="5"/>
     </row>
-    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>224</v>
       </c>
@@ -29802,7 +29803,7 @@
       </c>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>224</v>
       </c>
@@ -29858,7 +29859,7 @@
       </c>
       <c r="AN41" s="5"/>
     </row>
-    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>224</v>
       </c>
@@ -29914,7 +29915,7 @@
       </c>
       <c r="AN42" s="5"/>
     </row>
-    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>224</v>
       </c>
@@ -29970,7 +29971,7 @@
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
     </row>
-    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>224</v>
       </c>
@@ -30026,7 +30027,7 @@
       <c r="AM44" s="5"/>
       <c r="AN44" s="5"/>
     </row>
-    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>224</v>
       </c>
@@ -30082,7 +30083,7 @@
       <c r="AM45" s="5"/>
       <c r="AN45" s="5"/>
     </row>
-    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>224</v>
       </c>
@@ -30138,7 +30139,7 @@
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
     </row>
-    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
@@ -30194,7 +30195,7 @@
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
     </row>
-    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>224</v>
       </c>
@@ -30250,7 +30251,7 @@
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
     </row>
-    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>224</v>
       </c>
@@ -30306,7 +30307,7 @@
         <v>10.376566949815739</v>
       </c>
     </row>
-    <row r="50" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -30362,7 +30363,7 @@
         <v>29.395672418635055</v>
       </c>
     </row>
-    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -30418,7 +30419,7 @@
       </c>
       <c r="AN51" s="5"/>
     </row>
-    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>224</v>
       </c>
@@ -30474,7 +30475,7 @@
       </c>
       <c r="AN52" s="5"/>
     </row>
-    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>224</v>
       </c>
@@ -30530,7 +30531,7 @@
       </c>
       <c r="AN53" s="5"/>
     </row>
-    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>224</v>
       </c>
@@ -30586,7 +30587,7 @@
       </c>
       <c r="AN54" s="5"/>
     </row>
-    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>224</v>
       </c>
@@ -30642,7 +30643,7 @@
       </c>
       <c r="AN55" s="5"/>
     </row>
-    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
@@ -30698,7 +30699,7 @@
       </c>
       <c r="AN56" s="5"/>
     </row>
-    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
@@ -30754,7 +30755,7 @@
       </c>
       <c r="AN57" s="5"/>
     </row>
-    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>224</v>
       </c>
@@ -30810,7 +30811,7 @@
       </c>
       <c r="AN58" s="5"/>
     </row>
-    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>224</v>
       </c>
@@ -30866,7 +30867,7 @@
       </c>
       <c r="AN59" s="5"/>
     </row>
-    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>224</v>
       </c>
@@ -30922,7 +30923,7 @@
       </c>
       <c r="AN60" s="5"/>
     </row>
-    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>224</v>
       </c>
@@ -30978,7 +30979,7 @@
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
     </row>
-    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>224</v>
       </c>
@@ -31034,7 +31035,7 @@
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
     </row>
-    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>224</v>
       </c>
@@ -31094,7 +31095,7 @@
       </c>
       <c r="AN63" s="5"/>
     </row>
-    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>224</v>
       </c>
@@ -31154,7 +31155,7 @@
       </c>
       <c r="AN64" s="5"/>
     </row>
-    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>224</v>
       </c>
@@ -31242,7 +31243,7 @@
       <c r="AM65" s="5"/>
       <c r="AN65" s="5"/>
     </row>
-    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>224</v>
       </c>
@@ -31330,7 +31331,7 @@
       <c r="AM66" s="5"/>
       <c r="AN66" s="5"/>
     </row>
-    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>224</v>
       </c>
@@ -31386,7 +31387,7 @@
       </c>
       <c r="AN67" s="5"/>
     </row>
-    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>224</v>
       </c>
@@ -31442,7 +31443,7 @@
       </c>
       <c r="AN68" s="5"/>
     </row>
-    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>224</v>
       </c>
@@ -31510,7 +31511,7 @@
       </c>
       <c r="AN69" s="5"/>
     </row>
-    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>224</v>
       </c>
@@ -31578,7 +31579,7 @@
       </c>
       <c r="AN70" s="5"/>
     </row>
-    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>224</v>
       </c>
@@ -31634,7 +31635,7 @@
       <c r="AM71" s="5"/>
       <c r="AN71" s="5"/>
     </row>
-    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>224</v>
       </c>
@@ -31690,7 +31691,7 @@
       <c r="AM72" s="5"/>
       <c r="AN72" s="5"/>
     </row>
-    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -31746,7 +31747,7 @@
       <c r="AM73" s="5"/>
       <c r="AN73" s="5"/>
     </row>
-    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -31802,7 +31803,7 @@
       <c r="AM74" s="5"/>
       <c r="AN74" s="5"/>
     </row>
-    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -31858,7 +31859,7 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>224</v>
       </c>
@@ -31914,7 +31915,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="5"/>
     </row>
-    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>224</v>
       </c>
@@ -31970,7 +31971,7 @@
       </c>
       <c r="AN77" s="5"/>
     </row>
-    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>224</v>
       </c>
@@ -32026,7 +32027,7 @@
       </c>
       <c r="AN78" s="5"/>
     </row>
-    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
@@ -32082,7 +32083,7 @@
       <c r="AM79" s="5"/>
       <c r="AN79" s="5"/>
     </row>
-    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>224</v>
       </c>
@@ -32138,7 +32139,7 @@
       <c r="AM80" s="5"/>
       <c r="AN80" s="5"/>
     </row>
-    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>224</v>
       </c>
@@ -32214,7 +32215,7 @@
       <c r="AM81" s="5"/>
       <c r="AN81" s="5"/>
     </row>
-    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>224</v>
       </c>
@@ -32290,7 +32291,7 @@
       <c r="AM82" s="5"/>
       <c r="AN82" s="5"/>
     </row>
-    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>224</v>
       </c>
@@ -32346,7 +32347,7 @@
       <c r="AM83" s="5"/>
       <c r="AN83" s="5"/>
     </row>
-    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>224</v>
       </c>
@@ -32402,7 +32403,7 @@
       <c r="AM84" s="5"/>
       <c r="AN84" s="5"/>
     </row>
-    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>224</v>
       </c>
@@ -32458,7 +32459,7 @@
       </c>
       <c r="AN85" s="5"/>
     </row>
-    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>224</v>
       </c>
@@ -32514,7 +32515,7 @@
       </c>
       <c r="AN86" s="5"/>
     </row>
-    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>224</v>
       </c>
@@ -32570,7 +32571,7 @@
       </c>
       <c r="AN87" s="5"/>
     </row>
-    <row r="88" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>224</v>
       </c>
@@ -32626,7 +32627,7 @@
       </c>
       <c r="AN88" s="5"/>
     </row>
-    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
@@ -32698,7 +32699,7 @@
       </c>
       <c r="AN89" s="5"/>
     </row>
-    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>224</v>
       </c>
@@ -32770,7 +32771,7 @@
       </c>
       <c r="AN90" s="5"/>
     </row>
-    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -32826,7 +32827,7 @@
       </c>
       <c r="AN91" s="5"/>
     </row>
-    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>224</v>
       </c>
@@ -32882,7 +32883,7 @@
       </c>
       <c r="AN92" s="5"/>
     </row>
-    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>224</v>
       </c>
@@ -32938,7 +32939,7 @@
       </c>
       <c r="AN93" s="5"/>
     </row>
-    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>224</v>
       </c>
@@ -32994,7 +32995,7 @@
       </c>
       <c r="AN94" s="5"/>
     </row>
-    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>224</v>
       </c>
@@ -33050,7 +33051,7 @@
       <c r="AM95" s="5"/>
       <c r="AN95" s="5"/>
     </row>
-    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -33106,7 +33107,7 @@
       <c r="AM96" s="5"/>
       <c r="AN96" s="5"/>
     </row>
-    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>224</v>
       </c>
@@ -33162,7 +33163,7 @@
       </c>
       <c r="AN97" s="5"/>
     </row>
-    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -33218,7 +33219,7 @@
       </c>
       <c r="AN98" s="5"/>
     </row>
-    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>224</v>
       </c>
@@ -33274,7 +33275,7 @@
       </c>
       <c r="AN99" s="5"/>
     </row>
-    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>224</v>
       </c>
@@ -33330,7 +33331,7 @@
       </c>
       <c r="AN100" s="5"/>
     </row>
-    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>224</v>
       </c>
@@ -33386,7 +33387,7 @@
       <c r="AM101" s="5"/>
       <c r="AN101" s="5"/>
     </row>
-    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -33442,7 +33443,7 @@
       <c r="AM102" s="5"/>
       <c r="AN102" s="5"/>
     </row>
-    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -33498,7 +33499,7 @@
       </c>
       <c r="AN103" s="5"/>
     </row>
-    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>224</v>
       </c>
@@ -33554,7 +33555,7 @@
       </c>
       <c r="AN104" s="5"/>
     </row>
-    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
@@ -33610,7 +33611,7 @@
       </c>
       <c r="AN105" s="5"/>
     </row>
-    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>224</v>
       </c>
@@ -33666,7 +33667,7 @@
       </c>
       <c r="AN106" s="5"/>
     </row>
-    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -33722,7 +33723,7 @@
       <c r="AM107" s="5"/>
       <c r="AN107" s="5"/>
     </row>
-    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
@@ -33778,7 +33779,7 @@
       <c r="AM108" s="5"/>
       <c r="AN108" s="5"/>
     </row>
-    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>224</v>
       </c>
@@ -33834,7 +33835,7 @@
       </c>
       <c r="AN109" s="5"/>
     </row>
-    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
@@ -33890,7 +33891,7 @@
       </c>
       <c r="AN110" s="5"/>
     </row>
-    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>224</v>
       </c>
@@ -33946,7 +33947,7 @@
       </c>
       <c r="AN111" s="5"/>
     </row>
-    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>224</v>
       </c>
@@ -34002,7 +34003,7 @@
       </c>
       <c r="AN112" s="5"/>
     </row>
-    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -34058,7 +34059,7 @@
       </c>
       <c r="AN113" s="5"/>
     </row>
-    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -34114,7 +34115,7 @@
       </c>
       <c r="AN114" s="5"/>
     </row>
-    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -34170,7 +34171,7 @@
       </c>
       <c r="AN115" s="5"/>
     </row>
-    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>224</v>
       </c>
@@ -34226,7 +34227,7 @@
       </c>
       <c r="AN116" s="5"/>
     </row>
-    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>229</v>
       </c>
@@ -34286,7 +34287,7 @@
       <c r="AM117" s="5"/>
       <c r="AN117" s="5"/>
     </row>
-    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>229</v>
       </c>
@@ -34346,7 +34347,7 @@
       <c r="AM118" s="5"/>
       <c r="AN118" s="5"/>
     </row>
-    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>229</v>
       </c>
@@ -34410,7 +34411,7 @@
       <c r="AM119" s="5"/>
       <c r="AN119" s="5"/>
     </row>
-    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>229</v>
       </c>
@@ -34474,7 +34475,7 @@
       <c r="AM120" s="5"/>
       <c r="AN120" s="5"/>
     </row>
-    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>229</v>
       </c>
@@ -34582,7 +34583,7 @@
       <c r="AM121" s="5"/>
       <c r="AN121" s="5"/>
     </row>
-    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>229</v>
       </c>
@@ -34690,7 +34691,7 @@
       <c r="AM122" s="5"/>
       <c r="AN122" s="5"/>
     </row>
-    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>229</v>
       </c>
@@ -34794,7 +34795,7 @@
       <c r="AM123" s="5"/>
       <c r="AN123" s="5"/>
     </row>
-    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>229</v>
       </c>
@@ -34898,7 +34899,7 @@
       <c r="AM124" s="5"/>
       <c r="AN124" s="5"/>
     </row>
-    <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>229</v>
       </c>
@@ -35014,7 +35015,7 @@
       </c>
       <c r="AN125" s="5"/>
     </row>
-    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>229</v>
       </c>
@@ -35130,7 +35131,7 @@
       </c>
       <c r="AN126" s="5"/>
     </row>
-    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>229</v>
       </c>
@@ -35192,7 +35193,7 @@
       <c r="AM127" s="5"/>
       <c r="AN127" s="5"/>
     </row>
-    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>229</v>
       </c>
@@ -35254,7 +35255,7 @@
       <c r="AM128" s="5"/>
       <c r="AN128" s="5"/>
     </row>
-    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>229</v>
       </c>
@@ -35330,7 +35331,7 @@
       <c r="AM129" s="5"/>
       <c r="AN129" s="5"/>
     </row>
-    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>229</v>
       </c>
@@ -35406,7 +35407,7 @@
       <c r="AM130" s="5"/>
       <c r="AN130" s="5"/>
     </row>
-    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>229</v>
       </c>
@@ -35526,7 +35527,7 @@
         <v>2.1118189460546652</v>
       </c>
     </row>
-    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>229</v>
       </c>
@@ -35646,7 +35647,7 @@
         <v>7.859077296240855</v>
       </c>
     </row>
-    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>229</v>
       </c>
@@ -35726,7 +35727,7 @@
       <c r="AM133" s="5"/>
       <c r="AN133" s="5"/>
     </row>
-    <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>229</v>
       </c>
@@ -35806,7 +35807,7 @@
       <c r="AM134" s="5"/>
       <c r="AN134" s="5"/>
     </row>
-    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>229</v>
       </c>
@@ -35870,7 +35871,7 @@
       <c r="AM135" s="5"/>
       <c r="AN135" s="5"/>
     </row>
-    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>229</v>
       </c>
@@ -35934,7 +35935,7 @@
       <c r="AM136" s="5"/>
       <c r="AN136" s="5"/>
     </row>
-    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>229</v>
       </c>
@@ -36026,7 +36027,7 @@
         <v>3.1832256339771967</v>
       </c>
     </row>
-    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>229</v>
       </c>
@@ -36118,7 +36119,7 @@
         <v>27.262952111110874</v>
       </c>
     </row>
-    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>229</v>
       </c>
@@ -36218,7 +36219,7 @@
         <v>5.6082304006199752</v>
       </c>
     </row>
-    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>229</v>
       </c>
@@ -36318,7 +36319,7 @@
         <v>14.860108053160614</v>
       </c>
     </row>
-    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>229</v>
       </c>
@@ -36390,7 +36391,7 @@
       <c r="AM141" s="5"/>
       <c r="AN141" s="5"/>
     </row>
-    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>229</v>
       </c>
@@ -36462,7 +36463,7 @@
       <c r="AM142" s="5"/>
       <c r="AN142" s="5"/>
     </row>
-    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>229</v>
       </c>
@@ -36518,7 +36519,7 @@
       <c r="AM143" s="5"/>
       <c r="AN143" s="5"/>
     </row>
-    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>229</v>
       </c>
@@ -36574,7 +36575,7 @@
       <c r="AM144" s="5"/>
       <c r="AN144" s="5"/>
     </row>
-    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>229</v>
       </c>
@@ -36674,7 +36675,7 @@
         <v>9.3295280738977713</v>
       </c>
     </row>
-    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>229</v>
       </c>
@@ -36774,7 +36775,7 @@
         <v>85.05763771594664</v>
       </c>
     </row>
-    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>229</v>
       </c>
@@ -36842,7 +36843,7 @@
       <c r="AM147" s="5"/>
       <c r="AN147" s="5"/>
     </row>
-    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>229</v>
       </c>
@@ -36910,7 +36911,7 @@
       <c r="AM148" s="5"/>
       <c r="AN148" s="5"/>
     </row>
-    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>229</v>
       </c>
@@ -36980,7 +36981,7 @@
       <c r="AM149" s="5"/>
       <c r="AN149" s="5"/>
     </row>
-    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>229</v>
       </c>
@@ -37050,7 +37051,7 @@
       <c r="AM150" s="5"/>
       <c r="AN150" s="5"/>
     </row>
-    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>229</v>
       </c>
@@ -37170,7 +37171,7 @@
         <v>2.9911409283854926</v>
       </c>
     </row>
-    <row r="152" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>229</v>
       </c>
@@ -37290,7 +37291,7 @@
         <v>35.271139707736211</v>
       </c>
     </row>
-    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>229</v>
       </c>
@@ -37356,7 +37357,7 @@
       <c r="AM153" s="5"/>
       <c r="AN153" s="5"/>
     </row>
-    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>229</v>
       </c>
@@ -37422,7 +37423,7 @@
       <c r="AM154" s="5"/>
       <c r="AN154" s="5"/>
     </row>
-    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>229</v>
       </c>
@@ -37514,7 +37515,7 @@
       <c r="AM155" s="5"/>
       <c r="AN155" s="5"/>
     </row>
-    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>229</v>
       </c>
@@ -37606,7 +37607,7 @@
       <c r="AM156" s="5"/>
       <c r="AN156" s="5"/>
     </row>
-    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>229</v>
       </c>
@@ -37690,7 +37691,7 @@
         <v>7.3575800242406943</v>
       </c>
     </row>
-    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>229</v>
       </c>
@@ -37774,7 +37775,7 @@
         <v>65.028771870351434</v>
       </c>
     </row>
-    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>229</v>
       </c>
@@ -37874,7 +37875,7 @@
       </c>
       <c r="AN159" s="5"/>
     </row>
-    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>229</v>
       </c>
@@ -37974,7 +37975,7 @@
       </c>
       <c r="AN160" s="5"/>
     </row>
-    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
@@ -38038,7 +38039,7 @@
       <c r="AM161" s="5"/>
       <c r="AN161" s="5"/>
     </row>
-    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>229</v>
       </c>
@@ -38102,7 +38103,7 @@
       <c r="AM162" s="5"/>
       <c r="AN162" s="5"/>
     </row>
-    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>229</v>
       </c>
@@ -38206,7 +38207,7 @@
       <c r="AM163" s="5"/>
       <c r="AN163" s="5"/>
     </row>
-    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>229</v>
       </c>
@@ -38310,7 +38311,7 @@
       <c r="AM164" s="5"/>
       <c r="AN164" s="5"/>
     </row>
-    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>229</v>
       </c>
@@ -38398,7 +38399,7 @@
         <v>8.1493716598223251</v>
       </c>
     </row>
-    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>229</v>
       </c>
@@ -38486,7 +38487,7 @@
         <v>67.225932505417248</v>
       </c>
     </row>
-    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>229</v>
       </c>
@@ -38598,7 +38599,7 @@
       <c r="AM167" s="5"/>
       <c r="AN167" s="5"/>
     </row>
-    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>229</v>
       </c>
@@ -38710,7 +38711,7 @@
       <c r="AM168" s="5"/>
       <c r="AN168" s="5"/>
     </row>
-    <row r="169" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>229</v>
       </c>
@@ -38810,7 +38811,7 @@
         <v>15.690710844171676</v>
       </c>
     </row>
-    <row r="170" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>229</v>
       </c>
@@ -38910,7 +38911,7 @@
         <v>158.41690084384459</v>
       </c>
     </row>
-    <row r="171" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>229</v>
       </c>
@@ -39006,7 +39007,7 @@
       <c r="AM171" s="5"/>
       <c r="AN171" s="5"/>
     </row>
-    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>229</v>
       </c>
@@ -39102,7 +39103,7 @@
       <c r="AM172" s="5"/>
       <c r="AN172" s="5"/>
     </row>
-    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>229</v>
       </c>
@@ -39198,7 +39199,7 @@
         <v>10.205543757583161</v>
       </c>
     </row>
-    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>229</v>
       </c>
@@ -39294,7 +39295,7 @@
         <v>103.10000342920543</v>
       </c>
     </row>
-    <row r="175" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>229</v>
       </c>
@@ -39414,7 +39415,7 @@
         <v>4.4073941796536262</v>
       </c>
     </row>
-    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>229</v>
       </c>
@@ -39534,7 +39535,7 @@
         <v>34.247602935553701</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>229</v>
       </c>
@@ -39614,7 +39615,7 @@
       </c>
       <c r="AN177" s="5"/>
     </row>
-    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>229</v>
       </c>
@@ -39694,7 +39695,7 @@
       </c>
       <c r="AN178" s="5"/>
     </row>
-    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>229</v>
       </c>
@@ -39814,7 +39815,7 @@
         <v>2.1936522712203521</v>
       </c>
     </row>
-    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>229</v>
       </c>
@@ -39934,7 +39935,7 @@
         <v>17.103493929724941</v>
       </c>
     </row>
-    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>229</v>
       </c>
@@ -40026,7 +40027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>229</v>
       </c>
@@ -40118,7 +40119,7 @@
         <v>27.235707510469176</v>
       </c>
     </row>
-    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>229</v>
       </c>
@@ -40238,7 +40239,7 @@
         <v>0.82585488110789873</v>
       </c>
     </row>
-    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>229</v>
       </c>
@@ -40358,7 +40359,7 @@
         <v>2.5560779903219721</v>
       </c>
     </row>
-    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>229</v>
       </c>
@@ -40412,7 +40413,7 @@
       <c r="AM185" s="5"/>
       <c r="AN185" s="5"/>
     </row>
-    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>229</v>
       </c>
@@ -40466,7 +40467,7 @@
       <c r="AM186" s="5"/>
       <c r="AN186" s="5"/>
     </row>
-    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>229</v>
       </c>
@@ -40520,7 +40521,7 @@
       <c r="AM187" s="5"/>
       <c r="AN187" s="5"/>
     </row>
-    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>229</v>
       </c>
@@ -40574,7 +40575,7 @@
       <c r="AM188" s="5"/>
       <c r="AN188" s="5"/>
     </row>
-    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>229</v>
       </c>
@@ -40694,7 +40695,7 @@
         <v>2.2614048238350231</v>
       </c>
     </row>
-    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>229</v>
       </c>
@@ -40814,7 +40815,7 @@
         <v>8.5115003532942772</v>
       </c>
     </row>
-    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>229</v>
       </c>
@@ -40874,7 +40875,7 @@
       </c>
       <c r="AN191" s="5"/>
     </row>
-    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>229</v>
       </c>
@@ -40934,7 +40935,7 @@
       </c>
       <c r="AN192" s="5"/>
     </row>
-    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>229</v>
       </c>
@@ -40998,7 +40999,7 @@
         <v>4.3048004918747029</v>
       </c>
     </row>
-    <row r="194" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>229</v>
       </c>
@@ -41062,7 +41063,7 @@
         <v>8.2893733879715441</v>
       </c>
     </row>
-    <row r="195" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>229</v>
       </c>
@@ -41178,7 +41179,7 @@
       </c>
       <c r="AN195" s="5"/>
     </row>
-    <row r="196" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>229</v>
       </c>
@@ -41294,7 +41295,7 @@
       </c>
       <c r="AN196" s="5"/>
     </row>
-    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>229</v>
       </c>
@@ -41394,7 +41395,7 @@
         <v>0.99581249450670151</v>
       </c>
     </row>
-    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>229</v>
       </c>
@@ -41494,7 +41495,7 @@
         <v>5.9773329703262323</v>
       </c>
     </row>
-    <row r="199" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>229</v>
       </c>
@@ -41614,7 +41615,7 @@
         <v>4.2045730546246816</v>
       </c>
     </row>
-    <row r="200" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>229</v>
       </c>
@@ -41734,7 +41735,7 @@
         <v>47.469373712666879</v>
       </c>
     </row>
-    <row r="201" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>229</v>
       </c>
@@ -41854,7 +41855,7 @@
         <v>2.1971485729862139</v>
       </c>
     </row>
-    <row r="202" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>229</v>
       </c>
@@ -41974,7 +41975,7 @@
         <v>9.511406249017675</v>
       </c>
     </row>
-    <row r="203" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>229</v>
       </c>
@@ -42042,7 +42043,7 @@
       <c r="AM203" s="5"/>
       <c r="AN203" s="5"/>
     </row>
-    <row r="204" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>229</v>
       </c>
@@ -42110,7 +42111,7 @@
       <c r="AM204" s="5"/>
       <c r="AN204" s="5"/>
     </row>
-    <row r="205" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>229</v>
       </c>
@@ -42206,7 +42207,7 @@
         <v>2.6063778983355235</v>
       </c>
     </row>
-    <row r="206" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -42302,7 +42303,7 @@
         <v>33.907658622040408</v>
       </c>
     </row>
-    <row r="207" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>229</v>
       </c>
@@ -42390,7 +42391,7 @@
       </c>
       <c r="AN207" s="5"/>
     </row>
-    <row r="208" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>229</v>
       </c>
@@ -42478,7 +42479,7 @@
       </c>
       <c r="AN208" s="5"/>
     </row>
-    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>229</v>
       </c>
@@ -42554,7 +42555,7 @@
         <v>3.2575625257415814</v>
       </c>
     </row>
-    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>229</v>
       </c>
@@ -42630,7 +42631,7 @@
         <v>12.082928951700811</v>
       </c>
     </row>
-    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>229</v>
       </c>
@@ -42690,7 +42691,7 @@
       <c r="AM211" s="5"/>
       <c r="AN211" s="5"/>
     </row>
-    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>229</v>
       </c>
@@ -42750,7 +42751,7 @@
       <c r="AM212" s="5"/>
       <c r="AN212" s="5"/>
     </row>
-    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>229</v>
       </c>
@@ -42846,7 +42847,7 @@
         <v>2.357355975520905</v>
       </c>
     </row>
-    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>229</v>
       </c>
@@ -42942,7 +42943,7 @@
         <v>13.413799160253678</v>
       </c>
     </row>
-    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>229</v>
       </c>
@@ -43046,7 +43047,7 @@
       <c r="AM215" s="5"/>
       <c r="AN215" s="5"/>
     </row>
-    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>229</v>
       </c>
@@ -43150,7 +43151,7 @@
       <c r="AM216" s="5"/>
       <c r="AN216" s="5"/>
     </row>
-    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -43234,7 +43235,7 @@
       </c>
       <c r="AN217" s="5"/>
     </row>
-    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -43318,7 +43319,7 @@
       </c>
       <c r="AN218" s="5"/>
     </row>
-    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -43410,7 +43411,7 @@
       <c r="AM219" s="5"/>
       <c r="AN219" s="5"/>
     </row>
-    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
@@ -43502,7 +43503,7 @@
       <c r="AM220" s="5"/>
       <c r="AN220" s="5"/>
     </row>
-    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -43578,7 +43579,7 @@
       <c r="AM221" s="5"/>
       <c r="AN221" s="5"/>
     </row>
-    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -43654,7 +43655,7 @@
       <c r="AM222" s="5"/>
       <c r="AN222" s="5"/>
     </row>
-    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -43710,7 +43711,7 @@
       <c r="AM223" s="5"/>
       <c r="AN223" s="5"/>
     </row>
-    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>220</v>
       </c>
@@ -43766,7 +43767,7 @@
       <c r="AM224" s="5"/>
       <c r="AN224" s="5"/>
     </row>
-    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>220</v>
       </c>
@@ -43822,7 +43823,7 @@
       <c r="AM225" s="5"/>
       <c r="AN225" s="5"/>
     </row>
-    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>220</v>
       </c>
@@ -43878,7 +43879,7 @@
       <c r="AM226" s="5"/>
       <c r="AN226" s="5"/>
     </row>
-    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>220</v>
       </c>
@@ -43934,7 +43935,7 @@
       <c r="AM227" s="5"/>
       <c r="AN227" s="5"/>
     </row>
-    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>220</v>
       </c>
@@ -43990,7 +43991,7 @@
       <c r="AM228" s="5"/>
       <c r="AN228" s="5"/>
     </row>
-    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>220</v>
       </c>
@@ -44082,7 +44083,7 @@
       <c r="AM229" s="5"/>
       <c r="AN229" s="5"/>
     </row>
-    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>220</v>
       </c>
@@ -44174,7 +44175,7 @@
       <c r="AM230" s="5"/>
       <c r="AN230" s="5"/>
     </row>
-    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>220</v>
       </c>
@@ -44262,7 +44263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>220</v>
       </c>
@@ -44350,7 +44351,7 @@
         <v>0.34112852813494743</v>
       </c>
     </row>
-    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>220</v>
       </c>
@@ -44406,7 +44407,7 @@
       </c>
       <c r="AN233" s="5"/>
     </row>
-    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>220</v>
       </c>
@@ -44462,7 +44463,7 @@
       </c>
       <c r="AN234" s="5"/>
     </row>
-    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>220</v>
       </c>
@@ -44566,7 +44567,7 @@
         <v>0.30169514484472421</v>
       </c>
     </row>
-    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>220</v>
       </c>
@@ -44670,7 +44671,7 @@
         <v>0.26450194478879629</v>
       </c>
     </row>
-    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>220</v>
       </c>
@@ -44762,7 +44763,7 @@
         <v>2.5550182603694003</v>
       </c>
     </row>
-    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>220</v>
       </c>
@@ -44854,7 +44855,7 @@
         <v>8.8178054607003791</v>
       </c>
     </row>
-    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>220</v>
       </c>
@@ -44926,7 +44927,7 @@
         <v>0.76317790099405036</v>
       </c>
     </row>
-    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>220</v>
       </c>
@@ -44998,7 +44999,7 @@
         <v>0.63918698551446318</v>
       </c>
     </row>
-    <row r="241" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>220</v>
       </c>
@@ -45054,7 +45055,7 @@
       <c r="AM241" s="5"/>
       <c r="AN241" s="5"/>
     </row>
-    <row r="242" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>220</v>
       </c>
@@ -45110,7 +45111,7 @@
       <c r="AM242" s="5"/>
       <c r="AN242" s="5"/>
     </row>
-    <row r="243" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>220</v>
       </c>
@@ -45166,7 +45167,7 @@
       <c r="AM243" s="5"/>
       <c r="AN243" s="5"/>
     </row>
-    <row r="244" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>220</v>
       </c>
@@ -45222,7 +45223,7 @@
       <c r="AM244" s="5"/>
       <c r="AN244" s="5"/>
     </row>
-    <row r="245" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>220</v>
       </c>
@@ -45278,7 +45279,7 @@
       <c r="AM245" s="5"/>
       <c r="AN245" s="5"/>
     </row>
-    <row r="246" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>220</v>
       </c>
@@ -45334,7 +45335,7 @@
       <c r="AM246" s="5"/>
       <c r="AN246" s="5"/>
     </row>
-    <row r="247" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>220</v>
       </c>
@@ -45390,7 +45391,7 @@
       </c>
       <c r="AN247" s="5"/>
     </row>
-    <row r="248" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>220</v>
       </c>
@@ -45446,7 +45447,7 @@
       </c>
       <c r="AN248" s="5"/>
     </row>
-    <row r="249" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>220</v>
       </c>
@@ -45502,7 +45503,7 @@
       <c r="AM249" s="5"/>
       <c r="AN249" s="5"/>
     </row>
-    <row r="250" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>220</v>
       </c>
@@ -45558,7 +45559,7 @@
       <c r="AM250" s="5"/>
       <c r="AN250" s="5"/>
     </row>
-    <row r="251" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>220</v>
       </c>
@@ -45642,7 +45643,7 @@
         <v>0.76136760212888199</v>
       </c>
     </row>
-    <row r="252" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>220</v>
       </c>
@@ -45726,7 +45727,7 @@
         <v>3.8407882988431505</v>
       </c>
     </row>
-    <row r="253" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>220</v>
       </c>
@@ -45802,7 +45803,7 @@
       <c r="AM253" s="5"/>
       <c r="AN253" s="5"/>
     </row>
-    <row r="254" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>220</v>
       </c>
@@ -45878,7 +45879,7 @@
       <c r="AM254" s="5"/>
       <c r="AN254" s="5"/>
     </row>
-    <row r="255" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>220</v>
       </c>
@@ -45974,7 +45975,7 @@
         <v>0.24632093650642314</v>
       </c>
     </row>
-    <row r="256" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>220</v>
       </c>
@@ -46070,7 +46071,7 @@
         <v>0.39662830144225975</v>
       </c>
     </row>
-    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>220</v>
       </c>
@@ -46178,7 +46179,7 @@
       <c r="AM257" s="5"/>
       <c r="AN257" s="5"/>
     </row>
-    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>220</v>
       </c>
@@ -46286,7 +46287,7 @@
       <c r="AM258" s="5"/>
       <c r="AN258" s="5"/>
     </row>
-    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>220</v>
       </c>
@@ -46342,7 +46343,7 @@
       </c>
       <c r="AN259" s="5"/>
     </row>
-    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>220</v>
       </c>
@@ -46398,7 +46399,7 @@
       </c>
       <c r="AN260" s="5"/>
     </row>
-    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>220</v>
       </c>
@@ -46454,7 +46455,7 @@
       <c r="AM261" s="5"/>
       <c r="AN261" s="5"/>
     </row>
-    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>220</v>
       </c>
@@ -46510,7 +46511,7 @@
       <c r="AM262" s="5"/>
       <c r="AN262" s="5"/>
     </row>
-    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>220</v>
       </c>
@@ -46566,7 +46567,7 @@
       <c r="AM263" s="5"/>
       <c r="AN263" s="5"/>
     </row>
-    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>220</v>
       </c>
@@ -46622,7 +46623,7 @@
       <c r="AM264" s="5"/>
       <c r="AN264" s="5"/>
     </row>
-    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>220</v>
       </c>
@@ -46678,7 +46679,7 @@
       </c>
       <c r="AN265" s="5"/>
     </row>
-    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>220</v>
       </c>
@@ -46734,7 +46735,7 @@
       </c>
       <c r="AN266" s="5"/>
     </row>
-    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>220</v>
       </c>
@@ -46794,7 +46795,7 @@
         <v>1.0711510148208017</v>
       </c>
     </row>
-    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>220</v>
       </c>
@@ -46854,7 +46855,7 @@
         <v>1.1805512937605773</v>
       </c>
     </row>
-    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>220</v>
       </c>
@@ -46974,7 +46975,7 @@
         <v>2.6723887644160804</v>
       </c>
     </row>
-    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>220</v>
       </c>
@@ -47094,7 +47095,7 @@
         <v>3.7359510371818483</v>
       </c>
     </row>
-    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>220</v>
       </c>
@@ -47154,7 +47155,7 @@
       <c r="AM271" s="5"/>
       <c r="AN271" s="5"/>
     </row>
-    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>220</v>
       </c>
@@ -47214,7 +47215,7 @@
       <c r="AM272" s="5"/>
       <c r="AN272" s="5"/>
     </row>
-    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>220</v>
       </c>
@@ -47270,7 +47271,7 @@
       <c r="AM273" s="5"/>
       <c r="AN273" s="5"/>
     </row>
-    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>220</v>
       </c>
@@ -47326,7 +47327,7 @@
       <c r="AM274" s="5"/>
       <c r="AN274" s="5"/>
     </row>
-    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>220</v>
       </c>
@@ -47382,7 +47383,7 @@
       <c r="AM275" s="5"/>
       <c r="AN275" s="5"/>
     </row>
-    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>220</v>
       </c>
@@ -47438,7 +47439,7 @@
       <c r="AM276" s="5"/>
       <c r="AN276" s="5"/>
     </row>
-    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>220</v>
       </c>
@@ -47494,7 +47495,7 @@
       </c>
       <c r="AN277" s="5"/>
     </row>
-    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>220</v>
       </c>
@@ -47550,7 +47551,7 @@
       </c>
       <c r="AN278" s="5"/>
     </row>
-    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>220</v>
       </c>
@@ -47638,7 +47639,7 @@
         <v>1.2066590100107886</v>
       </c>
     </row>
-    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>220</v>
       </c>
@@ -47726,7 +47727,7 @@
         <v>3.9942119971126591</v>
       </c>
     </row>
-    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>220</v>
       </c>
@@ -47846,7 +47847,7 @@
         <v>1.0332573060347152</v>
       </c>
     </row>
-    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>220</v>
       </c>
@@ -47966,7 +47967,7 @@
         <v>5.1718949205918889</v>
       </c>
     </row>
-    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>220</v>
       </c>
@@ -48038,7 +48039,7 @@
         <v>1.80329818301849</v>
       </c>
     </row>
-    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>220</v>
       </c>
@@ -48110,7 +48111,7 @@
         <v>2.482412595295266</v>
       </c>
     </row>
-    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>220</v>
       </c>
@@ -48166,7 +48167,7 @@
       <c r="AM285" s="5"/>
       <c r="AN285" s="5"/>
     </row>
-    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>220</v>
       </c>
@@ -48222,7 +48223,7 @@
       <c r="AM286" s="5"/>
       <c r="AN286" s="5"/>
     </row>
-    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>220</v>
       </c>
@@ -48326,7 +48327,7 @@
         <v>0.85584713855578187</v>
       </c>
     </row>
-    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>220</v>
       </c>
@@ -48430,7 +48431,7 @@
         <v>1.3650994077108154</v>
       </c>
     </row>
-    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>220</v>
       </c>
@@ -48518,7 +48519,7 @@
         <v>1.6504580837896912</v>
       </c>
     </row>
-    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>220</v>
       </c>
@@ -48606,7 +48607,7 @@
         <v>0.26583339899975411</v>
       </c>
     </row>
-    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>220</v>
       </c>
@@ -48682,7 +48683,7 @@
       <c r="AM291" s="5"/>
       <c r="AN291" s="5"/>
     </row>
-    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>220</v>
       </c>
@@ -48758,7 +48759,7 @@
       <c r="AM292" s="5"/>
       <c r="AN292" s="5"/>
     </row>
-    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>220</v>
       </c>
@@ -48838,7 +48839,7 @@
       <c r="AM293" s="5"/>
       <c r="AN293" s="5"/>
     </row>
-    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>220</v>
       </c>
@@ -48918,7 +48919,7 @@
       <c r="AM294" s="5"/>
       <c r="AN294" s="5"/>
     </row>
-    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>220</v>
       </c>
@@ -48994,7 +48995,7 @@
       <c r="AM295" s="5"/>
       <c r="AN295" s="5"/>
     </row>
-    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>220</v>
       </c>
@@ -49070,7 +49071,7 @@
       <c r="AM296" s="5"/>
       <c r="AN296" s="5"/>
     </row>
-    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>220</v>
       </c>
@@ -49174,7 +49175,7 @@
       <c r="AM297" s="5"/>
       <c r="AN297" s="5"/>
     </row>
-    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>220</v>
       </c>
@@ -49278,7 +49279,7 @@
       <c r="AM298" s="5"/>
       <c r="AN298" s="5"/>
     </row>
-    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>220</v>
       </c>
@@ -49358,7 +49359,7 @@
         <v>0.80054314616811872</v>
       </c>
     </row>
-    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>220</v>
       </c>
@@ -49438,7 +49439,7 @@
         <v>2.2749670774362887</v>
       </c>
     </row>
-    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>220</v>
       </c>
@@ -49530,7 +49531,7 @@
       <c r="AM301" s="5"/>
       <c r="AN301" s="5"/>
     </row>
-    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>220</v>
       </c>
@@ -49622,7 +49623,7 @@
       <c r="AM302" s="5"/>
       <c r="AN302" s="5"/>
     </row>
-    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>220</v>
       </c>
@@ -49678,7 +49679,7 @@
       </c>
       <c r="AN303" s="5"/>
     </row>
-    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>220</v>
       </c>
@@ -49734,7 +49735,7 @@
       </c>
       <c r="AN304" s="5"/>
     </row>
-    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>220</v>
       </c>
@@ -49790,7 +49791,7 @@
       <c r="AM305" s="5"/>
       <c r="AN305" s="5"/>
     </row>
-    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>220</v>
       </c>
@@ -49846,7 +49847,7 @@
       <c r="AM306" s="5"/>
       <c r="AN306" s="5"/>
     </row>
-    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>220</v>
       </c>
@@ -49946,7 +49947,7 @@
       <c r="AM307" s="5"/>
       <c r="AN307" s="5"/>
     </row>
-    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>220</v>
       </c>
@@ -50046,7 +50047,7 @@
       <c r="AM308" s="5"/>
       <c r="AN308" s="5"/>
     </row>
-    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>220</v>
       </c>
@@ -50102,7 +50103,7 @@
       </c>
       <c r="AN309" s="5"/>
     </row>
-    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>220</v>
       </c>
@@ -50158,7 +50159,7 @@
       </c>
       <c r="AN310" s="5"/>
     </row>
-    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>220</v>
       </c>
@@ -50222,7 +50223,7 @@
       <c r="AM311" s="5"/>
       <c r="AN311" s="5"/>
     </row>
-    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>220</v>
       </c>
@@ -50286,7 +50287,7 @@
       <c r="AM312" s="5"/>
       <c r="AN312" s="5"/>
     </row>
-    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>220</v>
       </c>
@@ -50342,7 +50343,7 @@
       <c r="AM313" s="5"/>
       <c r="AN313" s="5"/>
     </row>
-    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>220</v>
       </c>
@@ -50398,7 +50399,7 @@
       <c r="AM314" s="5"/>
       <c r="AN314" s="5"/>
     </row>
-    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>220</v>
       </c>
@@ -50490,7 +50491,7 @@
       <c r="AM315" s="5"/>
       <c r="AN315" s="5"/>
     </row>
-    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>220</v>
       </c>
@@ -50582,7 +50583,7 @@
       <c r="AM316" s="5"/>
       <c r="AN316" s="5"/>
     </row>
-    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>220</v>
       </c>
@@ -50658,7 +50659,7 @@
       </c>
       <c r="AN317" s="5"/>
     </row>
-    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>220</v>
       </c>
@@ -50734,7 +50735,7 @@
       </c>
       <c r="AN318" s="5"/>
     </row>
-    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>220</v>
       </c>
@@ -50790,7 +50791,7 @@
       <c r="AM319" s="5"/>
       <c r="AN319" s="5"/>
     </row>
-    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>220</v>
       </c>
@@ -50846,7 +50847,7 @@
       <c r="AM320" s="5"/>
       <c r="AN320" s="5"/>
     </row>
-    <row r="321" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>222</v>
       </c>
@@ -50930,7 +50931,7 @@
       <c r="AM321" s="5"/>
       <c r="AN321" s="5"/>
     </row>
-    <row r="322" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>222</v>
       </c>
@@ -51014,7 +51015,7 @@
       <c r="AM322" s="5"/>
       <c r="AN322" s="5"/>
     </row>
-    <row r="323" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>222</v>
       </c>
@@ -51134,7 +51135,7 @@
         <v>0.60060844132288793</v>
       </c>
     </row>
-    <row r="324" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>222</v>
       </c>
@@ -51254,7 +51255,7 @@
         <v>1.7017290901865134</v>
       </c>
     </row>
-    <row r="325" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>222</v>
       </c>
@@ -51374,7 +51375,7 @@
         <v>0.66711380576915413</v>
       </c>
     </row>
-    <row r="326" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>222</v>
       </c>
@@ -51494,7 +51495,7 @@
         <v>0.55626759936507442</v>
       </c>
     </row>
-    <row r="327" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>222</v>
       </c>
@@ -51614,7 +51615,7 @@
         <v>1.6026507014631222</v>
       </c>
     </row>
-    <row r="328" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>222</v>
       </c>
@@ -51734,7 +51735,7 @@
         <v>2.5890702286056166</v>
       </c>
     </row>
-    <row r="329" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>222</v>
       </c>
@@ -51850,7 +51851,7 @@
         <v>0.35264136675326596</v>
       </c>
     </row>
-    <row r="330" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>222</v>
       </c>
@@ -51966,7 +51967,7 @@
         <v>1.0099424862954489</v>
       </c>
     </row>
-    <row r="331" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>222</v>
       </c>
@@ -52078,7 +52079,7 @@
       <c r="AM331" s="5"/>
       <c r="AN331" s="5"/>
     </row>
-    <row r="332" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>222</v>
       </c>
@@ -52190,7 +52191,7 @@
       <c r="AM332" s="5"/>
       <c r="AN332" s="5"/>
     </row>
-    <row r="333" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>222</v>
       </c>
@@ -52306,7 +52307,7 @@
       </c>
       <c r="AN333" s="5"/>
     </row>
-    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>222</v>
       </c>
@@ -52422,7 +52423,7 @@
       </c>
       <c r="AN334" s="5"/>
     </row>
-    <row r="335" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>222</v>
       </c>
@@ -52514,7 +52515,7 @@
       <c r="AM335" s="5"/>
       <c r="AN335" s="5"/>
     </row>
-    <row r="336" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>222</v>
       </c>
@@ -52606,7 +52607,7 @@
       <c r="AM336" s="5"/>
       <c r="AN336" s="5"/>
     </row>
-    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>222</v>
       </c>
@@ -52726,7 +52727,7 @@
         <v>0.71507874120508086</v>
       </c>
     </row>
-    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>222</v>
       </c>
@@ -52846,7 +52847,7 @@
         <v>1.3989481773489094</v>
       </c>
     </row>
-    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>222</v>
       </c>
@@ -52938,7 +52939,7 @@
       <c r="AM339" s="5"/>
       <c r="AN339" s="5"/>
     </row>
-    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>222</v>
       </c>
@@ -53030,7 +53031,7 @@
       <c r="AM340" s="5"/>
       <c r="AN340" s="5"/>
     </row>
-    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>222</v>
       </c>
@@ -53150,7 +53151,7 @@
         <v>0.80118261261942814</v>
       </c>
     </row>
-    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>222</v>
       </c>
@@ -53270,7 +53271,7 @@
         <v>1.1621522343634425</v>
       </c>
     </row>
-    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>222</v>
       </c>
@@ -53386,7 +53387,7 @@
       </c>
       <c r="AN343" s="5"/>
     </row>
-    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>222</v>
       </c>
@@ -53502,7 +53503,7 @@
       </c>
       <c r="AN344" s="5"/>
     </row>
-    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>222</v>
       </c>
@@ -53622,7 +53623,7 @@
         <v>0.85895293895285707</v>
       </c>
     </row>
-    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>222</v>
       </c>
@@ -53742,7 +53743,7 @@
         <v>1.9944580064225881</v>
       </c>
     </row>
-    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>222</v>
       </c>
@@ -53834,7 +53835,7 @@
         <v>0.60297510072637273</v>
       </c>
     </row>
-    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>222</v>
       </c>
@@ -53926,7 +53927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>222</v>
       </c>
@@ -54034,7 +54035,7 @@
       <c r="AM349" s="5"/>
       <c r="AN349" s="5"/>
     </row>
-    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>222</v>
       </c>
@@ -54142,7 +54143,7 @@
       <c r="AM350" s="5"/>
       <c r="AN350" s="5"/>
     </row>
-    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>222</v>
       </c>
@@ -54210,7 +54211,7 @@
       </c>
       <c r="AN351" s="5"/>
     </row>
-    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>222</v>
       </c>
@@ -54278,7 +54279,7 @@
       </c>
       <c r="AN352" s="5"/>
     </row>
-    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>222</v>
       </c>
@@ -54398,7 +54399,7 @@
         <v>2.924019057103441</v>
       </c>
     </row>
-    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>222</v>
       </c>
@@ -54518,7 +54519,7 @@
         <v>7.9681981123098113</v>
       </c>
     </row>
-    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>222</v>
       </c>
@@ -54638,7 +54639,7 @@
         <v>0.4219783457173687</v>
       </c>
     </row>
-    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>222</v>
       </c>
@@ -54758,7 +54759,7 @@
         <v>0.60536744197537662</v>
       </c>
     </row>
-    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>222</v>
       </c>
@@ -54878,7 +54879,7 @@
         <v>0.58950502370267188</v>
       </c>
     </row>
-    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>222</v>
       </c>
@@ -54998,7 +54999,7 @@
         <v>1.5663767631664942</v>
       </c>
     </row>
-    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>222</v>
       </c>
@@ -55118,7 +55119,7 @@
         <v>0.91113405339783682</v>
       </c>
     </row>
-    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>222</v>
       </c>
@@ -55238,7 +55239,7 @@
         <v>1.532432040198384</v>
       </c>
     </row>
-    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>222</v>
       </c>
@@ -55338,7 +55339,7 @@
         <v>0.21095363723946589</v>
       </c>
     </row>
-    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>222</v>
       </c>
@@ -55438,7 +55439,7 @@
         <v>1.7495613095092002</v>
       </c>
     </row>
-    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>222</v>
       </c>
@@ -55558,7 +55559,7 @@
         <v>0.57576799093034237</v>
       </c>
     </row>
-    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>222</v>
       </c>
@@ -55678,7 +55679,7 @@
         <v>1.8279208721721529</v>
       </c>
     </row>
-    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>222</v>
       </c>
@@ -55778,7 +55779,7 @@
         <v>0.87361307370762631</v>
       </c>
     </row>
-    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>222</v>
       </c>
@@ -55878,7 +55879,7 @@
         <v>1.5407357903804515</v>
       </c>
     </row>
-    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>222</v>
       </c>
@@ -55998,7 +55999,7 @@
         <v>1.0349554420896072</v>
       </c>
     </row>
-    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>222</v>
       </c>
@@ -56118,7 +56119,7 @@
         <v>4.3308966219970335</v>
       </c>
     </row>
-    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>222</v>
       </c>
@@ -56206,7 +56207,7 @@
       </c>
       <c r="AN369" s="5"/>
     </row>
-    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>222</v>
       </c>
@@ -56294,7 +56295,7 @@
       </c>
       <c r="AN370" s="5"/>
     </row>
-    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>222</v>
       </c>
@@ -56390,7 +56391,7 @@
         <v>0.83490508228148552</v>
       </c>
     </row>
-    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>222</v>
       </c>
@@ -56486,7 +56487,7 @@
         <v>1.7323124553189764</v>
       </c>
     </row>
-    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>222</v>
       </c>
@@ -56606,7 +56607,7 @@
         <v>0.91636459877732346</v>
       </c>
     </row>
-    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>222</v>
       </c>
@@ -56726,7 +56727,7 @@
         <v>1.1825804591521036</v>
       </c>
     </row>
-    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>222</v>
       </c>
@@ -56842,7 +56843,7 @@
         <v>0.45753210368920366</v>
       </c>
     </row>
-    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>222</v>
       </c>
@@ -56958,7 +56959,7 @@
         <v>1.0522310344570827</v>
       </c>
     </row>
-    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>222</v>
       </c>
@@ -57024,7 +57025,7 @@
       <c r="AM377" s="5"/>
       <c r="AN377" s="5"/>
     </row>
-    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>222</v>
       </c>
@@ -57090,7 +57091,7 @@
       <c r="AM378" s="5"/>
       <c r="AN378" s="5"/>
     </row>
-    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>222</v>
       </c>
@@ -57206,7 +57207,7 @@
         <v>0.48845512453384005</v>
       </c>
     </row>
-    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>222</v>
       </c>
@@ -57322,7 +57323,7 @@
         <v>0.86774798675843012</v>
       </c>
     </row>
-    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>222</v>
       </c>
@@ -57410,7 +57411,7 @@
         <v>0.44367805903030233</v>
       </c>
     </row>
-    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>222</v>
       </c>
@@ -57498,7 +57499,7 @@
         <v>2.7332997362361611</v>
       </c>
     </row>
-    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>222</v>
       </c>
@@ -57598,7 +57599,7 @@
       </c>
       <c r="AN383" s="5"/>
     </row>
-    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>222</v>
       </c>
@@ -57698,7 +57699,7 @@
       </c>
       <c r="AN384" s="5"/>
     </row>
-    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>222</v>
       </c>
@@ -57790,7 +57791,7 @@
         <v>0.94200176136663738</v>
       </c>
     </row>
-    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>222</v>
       </c>
@@ -57882,7 +57883,7 @@
         <v>8.0658572074581532</v>
       </c>
     </row>
-    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>222</v>
       </c>
@@ -57994,7 +57995,7 @@
       <c r="AM387" s="5"/>
       <c r="AN387" s="5"/>
     </row>
-    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>222</v>
       </c>
@@ -58106,7 +58107,7 @@
       <c r="AM388" s="5"/>
       <c r="AN388" s="5"/>
     </row>
-    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>222</v>
       </c>
@@ -58182,7 +58183,7 @@
       <c r="AM389" s="5"/>
       <c r="AN389" s="5"/>
     </row>
-    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>222</v>
       </c>
@@ -58258,7 +58259,7 @@
       <c r="AM390" s="5"/>
       <c r="AN390" s="5"/>
     </row>
-    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>222</v>
       </c>
@@ -58378,7 +58379,7 @@
         <v>0.909006834029641</v>
       </c>
     </row>
-    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>222</v>
       </c>
@@ -58498,7 +58499,7 @@
         <v>1.9019423065798744</v>
       </c>
     </row>
-    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>222</v>
       </c>
@@ -58602,7 +58603,7 @@
         <v>0.19116991072291067</v>
       </c>
     </row>
-    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>222</v>
       </c>
@@ -58706,7 +58707,7 @@
         <v>0.77666173798485361</v>
       </c>
     </row>
-    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>222</v>
       </c>
@@ -58822,7 +58823,7 @@
         <v>0.47808989631711174</v>
       </c>
     </row>
-    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>222</v>
       </c>
@@ -58938,7 +58939,7 @@
         <v>0.79475721063649496</v>
       </c>
     </row>
-    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>222</v>
       </c>
@@ -59046,7 +59047,7 @@
       <c r="AM397" s="5"/>
       <c r="AN397" s="5"/>
     </row>
-    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>222</v>
       </c>
@@ -59154,7 +59155,7 @@
       <c r="AM398" s="5"/>
       <c r="AN398" s="5"/>
     </row>
-    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>222</v>
       </c>
@@ -59274,7 +59275,7 @@
         <v>0.72062571538772935</v>
       </c>
     </row>
-    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>222</v>
       </c>
@@ -59394,7 +59395,7 @@
         <v>0.58702071968402236</v>
       </c>
     </row>
-    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>222</v>
       </c>
@@ -59506,7 +59507,7 @@
       <c r="AM401" s="5"/>
       <c r="AN401" s="5"/>
     </row>
-    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>222</v>
       </c>
@@ -59618,7 +59619,7 @@
       <c r="AM402" s="5"/>
       <c r="AN402" s="5"/>
     </row>
-    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>222</v>
       </c>
@@ -59678,7 +59679,7 @@
         <v>1.0429826335115626</v>
       </c>
     </row>
-    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>222</v>
       </c>
@@ -59738,7 +59739,7 @@
         <v>1.6722439511298908</v>
       </c>
     </row>
-    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>222</v>
       </c>
@@ -59858,7 +59859,7 @@
         <v>1.127255074664236</v>
       </c>
     </row>
-    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>222</v>
       </c>
@@ -59978,7 +59979,7 @@
         <v>1.2267547242925563</v>
       </c>
     </row>
-    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>222</v>
       </c>
@@ -60046,7 +60047,7 @@
       <c r="AM407" s="5"/>
       <c r="AN407" s="5"/>
     </row>
-    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>222</v>
       </c>
@@ -60114,7 +60115,7 @@
       <c r="AM408" s="5"/>
       <c r="AN408" s="5"/>
     </row>
-    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>222</v>
       </c>
@@ -60202,7 +60203,7 @@
       <c r="AM409" s="5"/>
       <c r="AN409" s="5"/>
     </row>
-    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>222</v>
       </c>
@@ -60290,7 +60291,7 @@
       <c r="AM410" s="5"/>
       <c r="AN410" s="5"/>
     </row>
-    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>222</v>
       </c>
@@ -60346,7 +60347,7 @@
       <c r="AM411" s="5"/>
       <c r="AN411" s="5"/>
     </row>
-    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>222</v>
       </c>
@@ -60402,7 +60403,7 @@
       <c r="AM412" s="5"/>
       <c r="AN412" s="5"/>
     </row>
-    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>222</v>
       </c>
@@ -60522,7 +60523,7 @@
         <v>0.35118453006061628</v>
       </c>
     </row>
-    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>222</v>
       </c>
@@ -60642,7 +60643,7 @@
         <v>0.75788800400601974</v>
       </c>
     </row>
-    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>222</v>
       </c>
@@ -60762,7 +60763,7 @@
         <v>0.58988348057801165</v>
       </c>
     </row>
-    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>222</v>
       </c>
@@ -60882,7 +60883,7 @@
         <v>0.48171792362477484</v>
       </c>
     </row>
-    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>226</v>
       </c>
@@ -61002,7 +61003,7 @@
         <v>0.66125010423817765</v>
       </c>
     </row>
-    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>226</v>
       </c>
@@ -61122,7 +61123,7 @@
         <v>1.2228634846541671</v>
       </c>
     </row>
-    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>226</v>
       </c>
@@ -61234,7 +61235,7 @@
       <c r="AM419" s="5"/>
       <c r="AN419" s="5"/>
     </row>
-    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>226</v>
       </c>
@@ -61346,7 +61347,7 @@
       <c r="AM420" s="5"/>
       <c r="AN420" s="5"/>
     </row>
-    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>226</v>
       </c>
@@ -61438,7 +61439,7 @@
       <c r="AM421" s="5"/>
       <c r="AN421" s="5"/>
     </row>
-    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>226</v>
       </c>
@@ -61530,7 +61531,7 @@
       <c r="AM422" s="5"/>
       <c r="AN422" s="5"/>
     </row>
-    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>226</v>
       </c>
@@ -61586,7 +61587,7 @@
       <c r="AM423" s="5"/>
       <c r="AN423" s="5"/>
     </row>
-    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>226</v>
       </c>
@@ -61642,7 +61643,7 @@
       <c r="AM424" s="5"/>
       <c r="AN424" s="5"/>
     </row>
-    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>226</v>
       </c>
@@ -61698,7 +61699,7 @@
       <c r="AM425" s="5"/>
       <c r="AN425" s="5"/>
     </row>
-    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>226</v>
       </c>
@@ -61754,7 +61755,7 @@
       <c r="AM426" s="5"/>
       <c r="AN426" s="5"/>
     </row>
-    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>226</v>
       </c>
@@ -61810,7 +61811,7 @@
       </c>
       <c r="AN427" s="5"/>
     </row>
-    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>226</v>
       </c>
@@ -61866,7 +61867,7 @@
       </c>
       <c r="AN428" s="5"/>
     </row>
-    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>226</v>
       </c>
@@ -61922,7 +61923,7 @@
       <c r="AM429" s="5"/>
       <c r="AN429" s="5"/>
     </row>
-    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>226</v>
       </c>
@@ -61978,7 +61979,7 @@
       <c r="AM430" s="5"/>
       <c r="AN430" s="5"/>
     </row>
-    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>226</v>
       </c>
@@ -62034,7 +62035,7 @@
       <c r="AM431" s="5"/>
       <c r="AN431" s="5"/>
     </row>
-    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>226</v>
       </c>
@@ -62090,7 +62091,7 @@
       <c r="AM432" s="5"/>
       <c r="AN432" s="5"/>
     </row>
-    <row r="433" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>226</v>
       </c>
@@ -62146,7 +62147,7 @@
       </c>
       <c r="AN433" s="5"/>
     </row>
-    <row r="434" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>226</v>
       </c>
@@ -62202,7 +62203,7 @@
       </c>
       <c r="AN434" s="5"/>
     </row>
-    <row r="435" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>226</v>
       </c>
@@ -62256,7 +62257,7 @@
       <c r="AM435" s="5"/>
       <c r="AN435" s="5"/>
     </row>
-    <row r="436" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>226</v>
       </c>
@@ -62310,7 +62311,7 @@
       <c r="AM436" s="5"/>
       <c r="AN436" s="5"/>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>226</v>
       </c>
@@ -62366,7 +62367,7 @@
       <c r="AM437" s="5"/>
       <c r="AN437" s="5"/>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>226</v>
       </c>
@@ -62422,7 +62423,7 @@
       <c r="AM438" s="5"/>
       <c r="AN438" s="5"/>
     </row>
-    <row r="439" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>226</v>
       </c>
@@ -62526,7 +62527,7 @@
       <c r="AM439" s="5"/>
       <c r="AN439" s="5"/>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>226</v>
       </c>
@@ -62652,13 +62653,13 @@
       <selection activeCell="B9" sqref="B2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>334</v>
       </c>
@@ -62666,7 +62667,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>336</v>
       </c>
@@ -62674,7 +62675,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>338</v>
       </c>
@@ -62682,7 +62683,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>252</v>
       </c>
@@ -62690,7 +62691,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>341</v>
       </c>
@@ -62698,7 +62699,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>343</v>
       </c>
@@ -62706,7 +62707,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>345</v>
       </c>
@@ -62714,7 +62715,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>347</v>
       </c>
@@ -62722,7 +62723,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>251</v>
       </c>
@@ -62730,7 +62731,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>350</v>
       </c>
@@ -62738,7 +62739,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>352</v>
       </c>
@@ -62746,7 +62747,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>354</v>
       </c>
@@ -62754,7 +62755,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>356</v>
       </c>
@@ -62762,7 +62763,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>254</v>
       </c>
@@ -62770,7 +62771,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>359</v>
       </c>
@@ -62778,7 +62779,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>361</v>
       </c>
@@ -62786,7 +62787,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>363</v>
       </c>
@@ -62794,7 +62795,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>273</v>
       </c>
@@ -62802,7 +62803,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>366</v>
       </c>
@@ -62810,7 +62811,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>368</v>
       </c>
@@ -62818,7 +62819,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>370</v>
       </c>
@@ -62826,7 +62827,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>372</v>
       </c>
@@ -62834,7 +62835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>374</v>
       </c>
@@ -62842,7 +62843,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>376</v>
       </c>
@@ -62850,7 +62851,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>256</v>
       </c>
@@ -62858,7 +62859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>250</v>
       </c>
@@ -62866,7 +62867,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>317</v>
       </c>
@@ -62874,7 +62875,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>381</v>
       </c>
@@ -62882,7 +62883,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>260</v>
       </c>
@@ -62890,7 +62891,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>384</v>
       </c>
@@ -62898,7 +62899,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>386</v>
       </c>
@@ -62906,7 +62907,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>388</v>
       </c>
@@ -62914,7 +62915,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>275</v>
       </c>
@@ -62922,7 +62923,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>391</v>
       </c>
@@ -62930,7 +62931,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>393</v>
       </c>
@@ -62938,7 +62939,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>315</v>
       </c>
@@ -62946,7 +62947,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>396</v>
       </c>
@@ -62954,7 +62955,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>398</v>
       </c>
@@ -62962,7 +62963,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>328</v>
       </c>
@@ -62970,7 +62971,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>401</v>
       </c>
@@ -62978,7 +62979,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>403</v>
       </c>
@@ -62986,7 +62987,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>405</v>
       </c>
@@ -62994,7 +62995,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>266</v>
       </c>
@@ -63002,7 +63003,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>408</v>
       </c>
@@ -63010,7 +63011,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>410</v>
       </c>
@@ -63018,7 +63019,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>412</v>
       </c>
@@ -63026,7 +63027,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>414</v>
       </c>
@@ -63034,7 +63035,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>416</v>
       </c>
@@ -63055,21 +63056,21 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>482</v>
       </c>
@@ -63086,7 +63087,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
@@ -63103,7 +63104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>33</v>
       </c>
@@ -63121,7 +63122,7 @@
       </c>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>33</v>
       </c>
@@ -63138,7 +63139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>33</v>
       </c>
@@ -63155,7 +63156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>33</v>
       </c>
@@ -63172,7 +63173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
@@ -63189,7 +63190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
@@ -63206,7 +63207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>47</v>
       </c>
@@ -63223,7 +63224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -63238,7 +63239,7 @@
       </c>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
@@ -63255,7 +63256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>47</v>
       </c>
@@ -63272,7 +63273,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>47</v>
       </c>
@@ -63289,7 +63290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>58</v>
       </c>
@@ -63306,7 +63307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>58</v>
       </c>
@@ -63323,7 +63324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>58</v>
       </c>
@@ -63340,7 +63341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>58</v>
       </c>
@@ -63357,7 +63358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>58</v>
       </c>
@@ -63374,7 +63375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>58</v>
       </c>
@@ -63402,14 +63403,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
@@ -63426,7 +63427,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -63443,7 +63444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
@@ -63456,7 +63457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -63469,7 +63470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
         <v>248</v>
@@ -63484,7 +63485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27" t="s">
@@ -63497,7 +63498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
@@ -63510,7 +63511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>47</v>
       </c>
@@ -63527,7 +63528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -63540,7 +63541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
@@ -63551,7 +63552,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
         <v>248</v>
@@ -63566,7 +63567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
@@ -63579,7 +63580,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -63592,7 +63593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>58</v>
       </c>
@@ -63609,7 +63610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
@@ -63622,7 +63623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
@@ -63635,7 +63636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
         <v>248</v>
@@ -63650,7 +63651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
@@ -63663,7 +63664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
@@ -63687,15 +63688,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.1640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="60"/>
+    <col min="3" max="8" width="5.109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.77734375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
@@ -63707,7 +63708,7 @@
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -63715,7 +63716,7 @@
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>482</v>
       </c>
@@ -63733,7 +63734,7 @@
       <c r="G3" s="81"/>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
       <c r="C4" s="47">
@@ -63755,7 +63756,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>33</v>
       </c>
@@ -63781,7 +63782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
@@ -63805,7 +63806,7 @@
       </c>
       <c r="H6" s="67"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>58</v>
       </c>
@@ -63846,9 +63847,9 @@
       <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
@@ -63874,7 +63875,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="83" t="s">
@@ -63888,7 +63889,7 @@
       <c r="G4" s="87"/>
       <c r="H4" s="88"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -63914,7 +63915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
@@ -63938,7 +63939,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
@@ -63979,9 +63980,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -63989,11 +63990,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C3" s="86">
         <v>2000</v>
       </c>
@@ -64007,7 +64008,7 @@
       </c>
       <c r="H3" s="88"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>482</v>
       </c>
@@ -64033,7 +64034,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -64059,7 +64060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
@@ -64083,7 +64084,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
@@ -64107,7 +64108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
       <c r="L12" s="25"/>
@@ -64133,20 +64134,20 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="60"/>
+    <col min="9" max="16384" width="10.77734375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
@@ -64154,11 +64155,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="80">
         <v>2000</v>
       </c>
@@ -64172,7 +64173,7 @@
       </c>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>482</v>
       </c>
@@ -64198,7 +64199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>33</v>
       </c>
@@ -64224,7 +64225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
@@ -64248,7 +64249,7 @@
       </c>
       <c r="H6" s="67"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>58</v>
       </c>
@@ -64272,7 +64273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="55" t="s">
         <v>481</v>
       </c>
@@ -64319,13 +64320,13 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -64335,7 +64336,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="83" t="s">
         <v>482</v>
       </c>
@@ -64345,7 +64346,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="83" t="s">
         <v>33</v>
       </c>
@@ -64359,7 +64360,7 @@
       </c>
       <c r="H3" s="85"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>475</v>
       </c>
@@ -64385,7 +64386,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -64411,7 +64412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="27" t="s">
         <v>248</v>
@@ -64435,7 +64436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -64461,7 +64462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="27" t="s">
         <v>248</v>
@@ -64485,7 +64486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -64509,7 +64510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
         <v>248</v>
@@ -64531,7 +64532,7 @@
       </c>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>501</v>
       </c>
@@ -64541,7 +64542,7 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
